--- a/results-partial/HW_C015_120.xlsx
+++ b/results-partial/HW_C015_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.97007004671944</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31.98756662887074</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.71580687977738</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31.84812129296269</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31.71593146225421</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.43936689903937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.68867800851428</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.33361211604183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.03449121931777</v>
+        <v>27.97007004671944</v>
       </c>
       <c r="C3" t="n">
-        <v>31.97512934919197</v>
+        <v>31.98756662887074</v>
       </c>
       <c r="D3" t="n">
-        <v>31.74525850245991</v>
+        <v>31.71580687977738</v>
       </c>
       <c r="E3" t="n">
-        <v>31.90898932264805</v>
+        <v>31.84812129296269</v>
       </c>
       <c r="F3" t="n">
-        <v>31.74525850245991</v>
+        <v>31.71593146225421</v>
       </c>
       <c r="G3" t="n">
-        <v>28.5217718206295</v>
+        <v>30.42218549148579</v>
       </c>
       <c r="H3" t="n">
-        <v>31.69046039505187</v>
+        <v>31.68867800851428</v>
       </c>
       <c r="I3" t="n">
-        <v>31.31404328091021</v>
+        <v>31.33361211604183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.01252619555745</v>
+        <v>28.03449121931777</v>
       </c>
       <c r="C4" t="n">
-        <v>31.95881495657883</v>
+        <v>31.97512934919197</v>
       </c>
       <c r="D4" t="n">
-        <v>31.69989457919621</v>
+        <v>31.74525850245991</v>
       </c>
       <c r="E4" t="n">
-        <v>31.85445414222405</v>
+        <v>31.90898932264805</v>
       </c>
       <c r="F4" t="n">
-        <v>31.69989457919621</v>
+        <v>31.74525850245991</v>
       </c>
       <c r="G4" t="n">
-        <v>28.4996196879425</v>
+        <v>30.4169453125953</v>
       </c>
       <c r="H4" t="n">
-        <v>31.65603535047414</v>
+        <v>31.69046039505187</v>
       </c>
       <c r="I4" t="n">
-        <v>31.29707145892847</v>
+        <v>31.31404328091021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.97261962171509</v>
+        <v>28.01252619555745</v>
       </c>
       <c r="C5" t="n">
-        <v>31.9738348319525</v>
+        <v>31.95881495657883</v>
       </c>
       <c r="D5" t="n">
-        <v>31.68116704784741</v>
+        <v>31.69989457919621</v>
       </c>
       <c r="E5" t="n">
-        <v>31.85670294463765</v>
+        <v>31.85445414222405</v>
       </c>
       <c r="F5" t="n">
-        <v>31.68116704784741</v>
+        <v>31.69989457919621</v>
       </c>
       <c r="G5" t="n">
-        <v>28.44225535453872</v>
+        <v>30.39385341245642</v>
       </c>
       <c r="H5" t="n">
-        <v>31.67257253726252</v>
+        <v>31.65603535047414</v>
       </c>
       <c r="I5" t="n">
-        <v>31.32026157553185</v>
+        <v>31.29707145892847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.99611430079139</v>
+        <v>27.97261962171509</v>
       </c>
       <c r="C6" t="n">
-        <v>32.01103107045497</v>
+        <v>31.9738348319525</v>
       </c>
       <c r="D6" t="n">
-        <v>31.71601118400442</v>
+        <v>31.68116704784741</v>
       </c>
       <c r="E6" t="n">
-        <v>31.89676935132548</v>
+        <v>31.85670294463765</v>
       </c>
       <c r="F6" t="n">
-        <v>31.7159769712522</v>
+        <v>31.68116704784741</v>
       </c>
       <c r="G6" t="n">
-        <v>28.47701728287436</v>
+        <v>30.39574513118872</v>
       </c>
       <c r="H6" t="n">
-        <v>31.71361694200338</v>
+        <v>31.67257253726252</v>
       </c>
       <c r="I6" t="n">
-        <v>31.35051309330456</v>
+        <v>31.32026157553185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.04799599133151</v>
+        <v>27.99611430079139</v>
       </c>
       <c r="C7" t="n">
-        <v>32.01463008297669</v>
+        <v>32.01103107045497</v>
       </c>
       <c r="D7" t="n">
-        <v>31.75017736552067</v>
+        <v>31.71601118400442</v>
       </c>
       <c r="E7" t="n">
-        <v>31.90919549631262</v>
+        <v>31.89676935132548</v>
       </c>
       <c r="F7" t="n">
-        <v>31.75017736552067</v>
+        <v>31.7159769712522</v>
       </c>
       <c r="G7" t="n">
-        <v>28.53093691804066</v>
+        <v>30.43269013996876</v>
       </c>
       <c r="H7" t="n">
-        <v>31.71961988311895</v>
+        <v>31.71361694200338</v>
       </c>
       <c r="I7" t="n">
-        <v>31.32997560522154</v>
+        <v>31.35051309330456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.99942927596777</v>
+        <v>28.04799599133151</v>
       </c>
       <c r="C8" t="n">
-        <v>32.00174872384984</v>
+        <v>32.01463008297669</v>
       </c>
       <c r="D8" t="n">
-        <v>31.71536376951477</v>
+        <v>31.75017736552067</v>
       </c>
       <c r="E8" t="n">
-        <v>31.86842107425726</v>
+        <v>31.90919549631262</v>
       </c>
       <c r="F8" t="n">
-        <v>31.71536376951477</v>
+        <v>31.75017736552067</v>
       </c>
       <c r="G8" t="n">
-        <v>28.47067960645057</v>
+        <v>30.42400713377445</v>
       </c>
       <c r="H8" t="n">
-        <v>31.7035024573028</v>
+        <v>31.71961988311895</v>
       </c>
       <c r="I8" t="n">
-        <v>31.31471976854444</v>
+        <v>31.32997560522154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.01599650206708</v>
+        <v>27.99942927596777</v>
       </c>
       <c r="C9" t="n">
-        <v>32.00427758482184</v>
+        <v>32.00174872384984</v>
       </c>
       <c r="D9" t="n">
-        <v>31.70805107668741</v>
+        <v>31.71536376951477</v>
       </c>
       <c r="E9" t="n">
-        <v>31.89057613821276</v>
+        <v>31.86842107425726</v>
       </c>
       <c r="F9" t="n">
-        <v>31.70800758367983</v>
+        <v>31.71536376951477</v>
       </c>
       <c r="G9" t="n">
-        <v>28.4829119297701</v>
+        <v>30.41997543063881</v>
       </c>
       <c r="H9" t="n">
-        <v>31.70416323438609</v>
+        <v>31.7035024573028</v>
       </c>
       <c r="I9" t="n">
-        <v>31.35069735491461</v>
+        <v>31.31471976854444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.98671635152283</v>
+        <v>28.01599650206708</v>
       </c>
       <c r="C10" t="n">
-        <v>31.97092075443173</v>
+        <v>32.00427758482184</v>
       </c>
       <c r="D10" t="n">
-        <v>31.71325598416949</v>
+        <v>31.70805107668741</v>
       </c>
       <c r="E10" t="n">
-        <v>31.88521351714062</v>
+        <v>31.89057613821276</v>
       </c>
       <c r="F10" t="n">
-        <v>31.71325598416949</v>
+        <v>31.70800758367983</v>
       </c>
       <c r="G10" t="n">
-        <v>28.46026858332304</v>
+        <v>30.44785806358702</v>
       </c>
       <c r="H10" t="n">
-        <v>31.69690310223311</v>
+        <v>31.70416323438609</v>
       </c>
       <c r="I10" t="n">
-        <v>31.33796847302048</v>
+        <v>31.35069735491461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.98671635152283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31.97092075443173</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31.71325598416949</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.88521351714062</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31.71325598416949</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.39753355702146</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.69690310223311</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.33796847302048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.98420113361988</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>31.96375362047107</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>31.7127934600741</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>31.86797715833185</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>31.7127934600741</v>
       </c>
-      <c r="G11" t="n">
-        <v>28.46863501192773</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>30.41435617377386</v>
+      </c>
+      <c r="H12" t="n">
         <v>31.677339656012</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>31.28355415704822</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.00201606386102</v>
-      </c>
-      <c r="C12" t="n">
-        <v>31.98617076036002</v>
-      </c>
-      <c r="D12" t="n">
-        <v>31.71577798492518</v>
-      </c>
-      <c r="E12" t="n">
-        <v>31.87864204380531</v>
-      </c>
-      <c r="F12" t="n">
-        <v>31.71578267259688</v>
-      </c>
-      <c r="G12" t="n">
-        <v>28.47934630945366</v>
-      </c>
-      <c r="H12" t="n">
-        <v>31.69228915663592</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31.32324168834662</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.984154696498994</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.713761921064155</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.876625979944283</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.713766608735856</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4773302455926327</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.690273092774891</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.321225624485596</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7396707024273057</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9102481828922186</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9081223237285271</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.909435632888091</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9081243927737052</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8827616713845884</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.894580077123496</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8858765535734663</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7395964148154505</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9111329821741936</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9070769520323587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9078628556308689</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9070769520323587</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8780015681024602</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8941023406212323</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.885785279203032</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7376576143687061</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9102865843932607</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9103937200228019</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9100348810519348</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9103937200228019</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8816639436177617</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8966636868527552</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8869922593098895</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7405913324744265</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9103127993004828</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9102166852750083</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9065202265588649</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9102166852750083</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8776372684041914</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8965533977893541</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8886304384519813</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7379587184087053</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9112835434382535</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9081457599204896</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9078988010857814</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9081453365032764</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8800104898425909</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8974564516671937</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8881767710087074</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7437301339860303</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9097407312257808</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9085259894483432</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9076433474642187</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9085259894483432</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8813407052842007</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8985746881382803</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8894697742945212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7411528186217226</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9093782343388278</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9104785510771277</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9074335457045335</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9104785510771277</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8781261089538207</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8962773614241243</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8872597606587089</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7434487613201163</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9121628230126403</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9102142109044137</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9117358349242562</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9102141654681581</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8777705129674594</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8967750952195097</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8884496746040315</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7376642730566921</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9114623164755066</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9104414121939652</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9080430787470567</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9104414121939652</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8797476785143814</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8968194221528495</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8859782999979323</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7387077200175279</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9106695033060823</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9091341111704396</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9083728958955243</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9091341111704396</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8780393832009803</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8963978341391097</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8872504764088556</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.76205740453999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28.92304156287348</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.73387141910442</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.87078630189156</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.73383081145423</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.87534251652764</v>
-      </c>
-      <c r="H2" t="n">
-        <v>27.74693997578355</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.60570378014476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.73664198286686</v>
+        <v>19.76205740453999</v>
       </c>
       <c r="C3" t="n">
-        <v>28.84490965597281</v>
+        <v>28.92304156287348</v>
       </c>
       <c r="D3" t="n">
-        <v>28.67403726778917</v>
+        <v>28.73387141910442</v>
       </c>
       <c r="E3" t="n">
-        <v>28.77982938873016</v>
+        <v>28.87078630189156</v>
       </c>
       <c r="F3" t="n">
-        <v>28.67403726778917</v>
+        <v>28.73383081145423</v>
       </c>
       <c r="G3" t="n">
-        <v>20.83395502216665</v>
+        <v>25.97620542497619</v>
       </c>
       <c r="H3" t="n">
-        <v>27.67832990789309</v>
+        <v>27.74693997578355</v>
       </c>
       <c r="I3" t="n">
-        <v>26.53567272190522</v>
+        <v>26.60570378014476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.76095486155358</v>
+        <v>19.73664198286686</v>
       </c>
       <c r="C4" t="n">
-        <v>28.94515496137526</v>
+        <v>28.84490965597281</v>
       </c>
       <c r="D4" t="n">
-        <v>28.75827466913425</v>
+        <v>28.67403726778917</v>
       </c>
       <c r="E4" t="n">
-        <v>28.858786742253</v>
+        <v>28.77982938873016</v>
       </c>
       <c r="F4" t="n">
-        <v>28.75827466913425</v>
+        <v>28.67403726778917</v>
       </c>
       <c r="G4" t="n">
-        <v>20.87221209418745</v>
+        <v>25.90723504139775</v>
       </c>
       <c r="H4" t="n">
-        <v>27.72475059421731</v>
+        <v>27.67832990789309</v>
       </c>
       <c r="I4" t="n">
-        <v>26.56138463987704</v>
+        <v>26.53567272190522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.74063659989309</v>
+        <v>19.76095486155358</v>
       </c>
       <c r="C5" t="n">
-        <v>28.87710733808223</v>
+        <v>28.94515496137526</v>
       </c>
       <c r="D5" t="n">
-        <v>28.73004589676432</v>
+        <v>28.75827466913425</v>
       </c>
       <c r="E5" t="n">
-        <v>28.82845637744059</v>
+        <v>28.858786742253</v>
       </c>
       <c r="F5" t="n">
-        <v>28.73004589676432</v>
+        <v>28.75827466913425</v>
       </c>
       <c r="G5" t="n">
-        <v>20.85409693704337</v>
+        <v>25.95448498293872</v>
       </c>
       <c r="H5" t="n">
-        <v>27.67851551070935</v>
+        <v>27.72475059421731</v>
       </c>
       <c r="I5" t="n">
-        <v>26.52736424891235</v>
+        <v>26.56138463987704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.75833044360287</v>
+        <v>19.74063659989309</v>
       </c>
       <c r="C6" t="n">
-        <v>28.88581280296854</v>
+        <v>28.87710733808223</v>
       </c>
       <c r="D6" t="n">
-        <v>28.68181018267465</v>
+        <v>28.73004589676432</v>
       </c>
       <c r="E6" t="n">
-        <v>28.83872213587867</v>
+        <v>28.82845637744059</v>
       </c>
       <c r="F6" t="n">
-        <v>28.68181018267465</v>
+        <v>28.73004589676432</v>
       </c>
       <c r="G6" t="n">
-        <v>20.85926142842392</v>
+        <v>25.9418020260871</v>
       </c>
       <c r="H6" t="n">
-        <v>27.69141399864551</v>
+        <v>27.67851551070935</v>
       </c>
       <c r="I6" t="n">
-        <v>26.53013464712095</v>
+        <v>26.52736424891235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.76292998557473</v>
+        <v>19.75833044360287</v>
       </c>
       <c r="C7" t="n">
-        <v>28.89066615374534</v>
+        <v>28.88581280296854</v>
       </c>
       <c r="D7" t="n">
-        <v>28.73914291583538</v>
+        <v>28.68181018267465</v>
       </c>
       <c r="E7" t="n">
-        <v>28.86166454438532</v>
+        <v>28.83872213587867</v>
       </c>
       <c r="F7" t="n">
-        <v>28.73914291583538</v>
+        <v>28.68181018267465</v>
       </c>
       <c r="G7" t="n">
-        <v>20.87791101726452</v>
+        <v>25.9349792368859</v>
       </c>
       <c r="H7" t="n">
-        <v>27.72473321257943</v>
+        <v>27.69141399864551</v>
       </c>
       <c r="I7" t="n">
-        <v>26.54847321894197</v>
+        <v>26.53013464712095</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.75873829569051</v>
+        <v>19.76292998557473</v>
       </c>
       <c r="C8" t="n">
-        <v>28.88403295125975</v>
+        <v>28.89066615374534</v>
       </c>
       <c r="D8" t="n">
-        <v>28.70333424370586</v>
+        <v>28.73914291583538</v>
       </c>
       <c r="E8" t="n">
-        <v>28.84025429026444</v>
+        <v>28.86166454438532</v>
       </c>
       <c r="F8" t="n">
-        <v>28.70343456925935</v>
+        <v>28.73914291583538</v>
       </c>
       <c r="G8" t="n">
-        <v>20.87436958276797</v>
+        <v>25.94549650698218</v>
       </c>
       <c r="H8" t="n">
-        <v>27.72685943865804</v>
+        <v>27.72473321257943</v>
       </c>
       <c r="I8" t="n">
-        <v>26.5383827823074</v>
+        <v>26.54847321894197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7618823372115</v>
+        <v>19.75873829569051</v>
       </c>
       <c r="C9" t="n">
-        <v>28.91586617198806</v>
+        <v>28.88403295125975</v>
       </c>
       <c r="D9" t="n">
-        <v>28.743405063808</v>
+        <v>28.70333424370586</v>
       </c>
       <c r="E9" t="n">
-        <v>28.88082137714239</v>
+        <v>28.84025429026444</v>
       </c>
       <c r="F9" t="n">
-        <v>28.743405063808</v>
+        <v>28.70343456925935</v>
       </c>
       <c r="G9" t="n">
-        <v>20.86311142812174</v>
+        <v>25.96536056170391</v>
       </c>
       <c r="H9" t="n">
-        <v>27.67550658962473</v>
+        <v>27.72685943865804</v>
       </c>
       <c r="I9" t="n">
-        <v>26.50432811512846</v>
+        <v>26.5383827823074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.74532170726462</v>
+        <v>19.7618823372115</v>
       </c>
       <c r="C10" t="n">
-        <v>28.8910738761058</v>
+        <v>28.91586617198806</v>
       </c>
       <c r="D10" t="n">
-        <v>28.72687448016568</v>
+        <v>28.743405063808</v>
       </c>
       <c r="E10" t="n">
-        <v>28.85186218422728</v>
+        <v>28.88082137714239</v>
       </c>
       <c r="F10" t="n">
-        <v>28.72685712802352</v>
+        <v>28.743405063808</v>
       </c>
       <c r="G10" t="n">
-        <v>20.84548777323007</v>
+        <v>25.92932962998641</v>
       </c>
       <c r="H10" t="n">
-        <v>27.71328803654262</v>
+        <v>27.67550658962473</v>
       </c>
       <c r="I10" t="n">
-        <v>26.55535286085061</v>
+        <v>26.50432811512846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.74532170726462</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.8910738761058</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.72687448016568</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.85186218422728</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.72685712802352</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.93001970458942</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27.71328803654262</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26.55535286085061</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.767482925493</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>28.91873866866673</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>28.78133548375545</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>28.90001768742674</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>28.78133548375545</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.88979998596704</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>25.9875929133849</v>
+      </c>
+      <c r="H12" t="n">
         <v>27.74172195830554</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>26.57378176275287</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.75549765436907</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28.8976404143038</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.72721316227372</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.85112010296401</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28.72721739884983</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.86455477857004</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27.71020592229592</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26.54805787779416</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.142142759934732</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.971715507904648</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.095622448594945</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.971719744480765</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.109057124200973</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.954708267926847</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.792560223425095</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4300754818777375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8467097960436276</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.847224948773889</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8330215812667733</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8472224575730997</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7347414423258656</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7919657657394911</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7557630412776657</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4293544918602649</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.848728893566585</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8488651311186517</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8314707971040989</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8488651311186517</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.727280401608451</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7945244729247194</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7584680323412096</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4304869024030836</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8475469657504848</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8440060008162037</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8367598424413656</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8440060008162037</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7273942409234512</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7938560094800822</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7543952806783962</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4292432442099498</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8445304702013132</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8427603211506101</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8308120693242976</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8427603211506101</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7293900036886239</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7923034591202104</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7529246952630451</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4296207055124584</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8486824570648419</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8459267035397705</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8406500190320091</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8459267035397705</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7325418455090262</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.794242695340226</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7538809411897093</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4304064704934866</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8471477047308845</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8540392427591207</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8346982181479146</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8540392427591207</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.72936051461454</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7945998547871489</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7573449828771784</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4301943493542634</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8485820483935146</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8460544655685542</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8314815514011623</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8460549350084352</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7299976013791321</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7951607258514755</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7552433386310307</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4287551008287271</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8492943859319265</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.847511766658819</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8323878907427026</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.847511766658819</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7210796698532151</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7915030555803163</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7541306904792067</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4290647179127591</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.84556717152051</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8451012433692874</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8338791405173797</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.845098899113962</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.736715363486238</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7926407337026949</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7534549782362158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4305084800229033</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8447077063231081</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8387291940559789</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8345659312970816</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8387291940559789</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7246052229724601</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7952503398780834</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7553623085327615</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.76077522084448</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.29960891992481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.93952997979208</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24.93140337308632</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.93952997979208</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.60461088258057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23.72092076782851</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22.50613384373906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.77326372306804</v>
+        <v>14.76077522084448</v>
       </c>
       <c r="C3" t="n">
-        <v>25.31784062277978</v>
+        <v>25.29960891992481</v>
       </c>
       <c r="D3" t="n">
-        <v>25.02459883628533</v>
+        <v>24.93952997979208</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9836575691078</v>
+        <v>24.93140337308632</v>
       </c>
       <c r="F3" t="n">
-        <v>25.02463499775891</v>
+        <v>24.93952997979208</v>
       </c>
       <c r="G3" t="n">
-        <v>17.61275766803895</v>
+        <v>22.02676225672713</v>
       </c>
       <c r="H3" t="n">
-        <v>23.76438411778874</v>
+        <v>23.72092076782851</v>
       </c>
       <c r="I3" t="n">
-        <v>22.54767257107202</v>
+        <v>22.50613384373906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.76042299534725</v>
+        <v>14.77326372306804</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3516246126601</v>
+        <v>25.31784062277978</v>
       </c>
       <c r="D4" t="n">
-        <v>25.02631023321324</v>
+        <v>25.02459883628533</v>
       </c>
       <c r="E4" t="n">
-        <v>25.00118190510301</v>
+        <v>24.9836575691078</v>
       </c>
       <c r="F4" t="n">
-        <v>25.02631023321324</v>
+        <v>25.02463499775891</v>
       </c>
       <c r="G4" t="n">
-        <v>17.6073723804636</v>
+        <v>22.06343958013651</v>
       </c>
       <c r="H4" t="n">
-        <v>23.75829417070175</v>
+        <v>23.76438411778874</v>
       </c>
       <c r="I4" t="n">
-        <v>22.54513673573027</v>
+        <v>22.54767257107202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.76488345217772</v>
+        <v>14.76042299534725</v>
       </c>
       <c r="C5" t="n">
-        <v>25.31809716492215</v>
+        <v>25.3516246126601</v>
       </c>
       <c r="D5" t="n">
-        <v>25.03268984158115</v>
+        <v>25.02631023321324</v>
       </c>
       <c r="E5" t="n">
-        <v>24.99844014234023</v>
+        <v>25.00118190510301</v>
       </c>
       <c r="F5" t="n">
-        <v>25.03268984158115</v>
+        <v>25.02631023321324</v>
       </c>
       <c r="G5" t="n">
-        <v>17.60073578833353</v>
+        <v>22.05087305919433</v>
       </c>
       <c r="H5" t="n">
-        <v>23.77154423494819</v>
+        <v>23.75829417070175</v>
       </c>
       <c r="I5" t="n">
-        <v>22.54735428435365</v>
+        <v>22.54513673573027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.78040284802067</v>
+        <v>14.76488345217772</v>
       </c>
       <c r="C6" t="n">
-        <v>25.32584420808153</v>
+        <v>25.31809716492215</v>
       </c>
       <c r="D6" t="n">
-        <v>24.95619341050157</v>
+        <v>25.03268984158115</v>
       </c>
       <c r="E6" t="n">
-        <v>24.95780030153352</v>
+        <v>24.99844014234023</v>
       </c>
       <c r="F6" t="n">
-        <v>24.95619341050157</v>
+        <v>25.03268984158115</v>
       </c>
       <c r="G6" t="n">
-        <v>17.61452760788207</v>
+        <v>22.05967278073025</v>
       </c>
       <c r="H6" t="n">
-        <v>23.75036952552434</v>
+        <v>23.77154423494819</v>
       </c>
       <c r="I6" t="n">
-        <v>22.55654884309794</v>
+        <v>22.54735428435365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.77004262157685</v>
+        <v>14.78040284802067</v>
       </c>
       <c r="C7" t="n">
-        <v>25.29351148242783</v>
+        <v>25.32584420808153</v>
       </c>
       <c r="D7" t="n">
-        <v>24.98943643014662</v>
+        <v>24.95619341050157</v>
       </c>
       <c r="E7" t="n">
-        <v>24.97846654694294</v>
+        <v>24.95780030153352</v>
       </c>
       <c r="F7" t="n">
-        <v>24.98943643014662</v>
+        <v>24.95619341050157</v>
       </c>
       <c r="G7" t="n">
-        <v>17.61887421760386</v>
+        <v>22.06342129376782</v>
       </c>
       <c r="H7" t="n">
-        <v>23.75436706937219</v>
+        <v>23.75036952552434</v>
       </c>
       <c r="I7" t="n">
-        <v>22.57061851273786</v>
+        <v>22.55654884309794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.79261972188354</v>
+        <v>14.77004262157685</v>
       </c>
       <c r="C8" t="n">
-        <v>25.33806993605253</v>
+        <v>25.29351148242783</v>
       </c>
       <c r="D8" t="n">
-        <v>25.02097640207366</v>
+        <v>24.98943643014662</v>
       </c>
       <c r="E8" t="n">
-        <v>25.0135263715999</v>
+        <v>24.97846654694294</v>
       </c>
       <c r="F8" t="n">
-        <v>25.0209650031524</v>
+        <v>24.98943643014662</v>
       </c>
       <c r="G8" t="n">
-        <v>17.65485011984996</v>
+        <v>22.0780170962784</v>
       </c>
       <c r="H8" t="n">
-        <v>23.77086714609264</v>
+        <v>23.75436706937219</v>
       </c>
       <c r="I8" t="n">
-        <v>22.54859328311465</v>
+        <v>22.57061851273786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.75452863854599</v>
+        <v>14.79261972188354</v>
       </c>
       <c r="C9" t="n">
-        <v>25.31204117887175</v>
+        <v>25.33806993605253</v>
       </c>
       <c r="D9" t="n">
-        <v>25.02286993631612</v>
+        <v>25.02097640207366</v>
       </c>
       <c r="E9" t="n">
-        <v>25.00432756609799</v>
+        <v>25.0135263715999</v>
       </c>
       <c r="F9" t="n">
-        <v>25.02286993631612</v>
+        <v>25.0209650031524</v>
       </c>
       <c r="G9" t="n">
-        <v>17.60169109951316</v>
+        <v>22.08766223031844</v>
       </c>
       <c r="H9" t="n">
-        <v>23.80531403503588</v>
+        <v>23.77086714609264</v>
       </c>
       <c r="I9" t="n">
-        <v>22.60773006826255</v>
+        <v>22.54859328311465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.77067442157021</v>
+        <v>14.75452863854599</v>
       </c>
       <c r="C10" t="n">
-        <v>25.32401004317781</v>
+        <v>25.31204117887175</v>
       </c>
       <c r="D10" t="n">
-        <v>25.02033272076094</v>
+        <v>25.02286993631612</v>
       </c>
       <c r="E10" t="n">
-        <v>24.97279004781045</v>
+        <v>25.00432756609799</v>
       </c>
       <c r="F10" t="n">
-        <v>25.02033272076094</v>
+        <v>25.02286993631612</v>
       </c>
       <c r="G10" t="n">
-        <v>17.61381291866825</v>
+        <v>22.09679814024102</v>
       </c>
       <c r="H10" t="n">
-        <v>23.77261367942483</v>
+        <v>23.80531403503588</v>
       </c>
       <c r="I10" t="n">
-        <v>22.55616868967738</v>
+        <v>22.60773006826255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.77067442157021</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.32401004317781</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.02033272076094</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.97279004781045</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.02033272076094</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.07405369117786</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23.77261367942483</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.55616868967738</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.7860912511361</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>25.38425452817548</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>25.01750153155971</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>25.02341493904925</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>25.01750153155971</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.63180185512057</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>22.09435474743894</v>
+      </c>
+      <c r="H12" t="n">
         <v>23.80259942904271</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>22.59067259964045</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.77137048941708</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.32649026970737</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.00504393222305</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24.98650087626714</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25.00504640847828</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.61610345380545</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23.76712741757598</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22.55766294314258</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.55511978029029</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.23367344280596</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.21513038685006</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.2336759190612</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.844732964388367</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.995756928158894</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.786292453725498</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2431597536688066</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.724659678436913</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7167387231897084</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7006029456678998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7167387231897084</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5042282449639026</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6409899554247404</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5824003644565884</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2441394096420396</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7285690429840207</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7139448532366319</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6983398703235658</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7139410438135728</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5091855661835214</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6374474026336887</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.584320443564687</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2434504753829822</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7238964231881598</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6973670585324456</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7046399890555035</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6973670585324456</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5060572299843551</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.637005957986147</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5845006729235233</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2432745906546729</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7235970749478745</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7217093655249666</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6982201862904962</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7217093655249666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5036348083687352</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6379170771547961</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.583102809343811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2447109742006054</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7224981719290758</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7039300278721387</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6958298157052946</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7039300278721387</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5030209135795998</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6333756908427945</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5853337094094104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2438719511128605</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7210660831480783</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7150855472416994</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6985473969837773</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7150855472416994</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5101886036568838</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.636367389099764</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5843898554091204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2441469680776538</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7269278617305506</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7097341639021811</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6977800686209934</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7097347938443078</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5139224648859539</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6384514682256969</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5820374607981662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2438534594200636</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7312701302637572</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7096389031769565</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7051591823733276</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7096389031769565</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5087745997858083</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6340076738355165</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5858795474964219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2428966096623777</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7268593727694173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7020853236788096</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6970535031891061</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7020853236788096</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5067183891005984</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6351661701881273</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.584962602055299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2444756969883388</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7271771255205537</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7241039810438968</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7025850301470609</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7241039810438968</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5032823371215186</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6383398270104743</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5908667798616339</v>
       </c>
     </row>
   </sheetData>
